--- a/use_cases/요구사항 목록.xlsx
+++ b/use_cases/요구사항 목록.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpemt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/697f485fc7585804/Desktop/소프트웨어공학/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED3456D4-D194-44AB-9E43-B80AB95125DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{ED3456D4-D194-44AB-9E43-B80AB95125DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DE6B8B7A-24B2-4028-84D3-CADAD3EA5F73}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="810" windowWidth="12610" windowHeight="7360" xr2:uid="{4F880A0F-CE22-46D2-82C3-EB60212196D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4F880A0F-CE22-46D2-82C3-EB60212196D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자원봉사자 구인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>봉사 예약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,17 +123,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. center 회원가입
-2. 봉사자 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RQ-03</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. center 정보 업데이트
-2. 봉사자 정보 업데이트</t>
   </si>
   <si>
     <t>크롬을 기본 작동 환경으로 한다.</t>
@@ -149,43 +136,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. center 유저 정보
-2. 봉사자 유저 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. center 정보기입
-  1-1. center의 경우 필수적으로 연락처를 입력해야한다
-2. 봉사자 정보기입
-  2-1. volunteer의 경우 필수적으로 연락처를 입력해야한다
-  2-2. volunteer의 경우 선택적으로 거주지를 입력할 수 있다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>비밀번호는 8 ~ 12자, 대문자, 소문자, 특수문자 하나씩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Center 회원가입
+2. Volunteer 회원가입</t>
+  </si>
+  <si>
+    <t>1. Center 정보기입
+  1-1. Center의 경우 필수적으로 연락처를 입력해야한다
+2. Volunteer 정보기입
+  2-1. Volunteer의 경우 필수적으로 연락처를 입력해야한다
+  2-2. Volunteer의 경우 선택적으로 거주지를 입력할 수 있다</t>
+  </si>
+  <si>
+    <t>1. Center 정보 업데이트
+2. Volunteer 정보 업데이트</t>
   </si>
   <si>
     <t>1. 새로운 봉사 신청
 2. 신청된 봉사 변경
 3. 봉사 취소
-4. 봉사자의 경우 시간대가 겹치는 봉사활동은 중복으로 신청할수 없다.
-5. 봉사자의 경우 봉사 시작 1시간 전에는 취소할 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. center 봉사 구인
- 1-1. center의 경우 최대 봉사인원을 지정할 수 있다
+4. Volunteer의 경우 시간대가 겹치는 봉사활동은 중복으로 신청할수 없다.
+5. Volunteer의 경우 봉사 시작 1시간 전에는 취소할 수 없다.</t>
+  </si>
+  <si>
+    <t>1. Center 유저 정보
+2. Volunteer 유저 정보</t>
+  </si>
+  <si>
+    <t>1. Center 봉사 구인
+ 1-1. Center의 경우 최대 봉사인원을 지정할 수 있다
  1-2. 구인 모집 기간이 지나면 구인 글이 자동으로 사라진다
-2. 봉사자 봉사 구인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호는 8 ~ 12자, 대문자, 소문자, 특수문자 하나씩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>center 자원봉사자 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
+2. Volunteer 봉사 구인</t>
+  </si>
+  <si>
+    <t>Volunteer 구인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center Volunteer 등록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,14 +553,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8C3927-59D9-4B5B-B6B0-099D40FC6A24}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="22.58203125" customWidth="1"/>
     <col min="3" max="3" width="60.25" customWidth="1"/>
     <col min="4" max="4" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -581,7 +576,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.45">
@@ -592,7 +587,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>44331</v>
@@ -606,7 +601,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2">
         <v>44331</v>
@@ -614,13 +609,13 @@
     </row>
     <row r="4" spans="1:4" ht="92.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>44331</v>
@@ -634,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>44331</v>
@@ -645,10 +640,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2">
         <v>44331</v>
@@ -659,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -673,10 +668,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>44331</v>
@@ -687,10 +682,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>44331</v>
@@ -701,10 +696,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>44331</v>
@@ -715,10 +710,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2">
         <v>44331</v>
@@ -729,10 +724,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>44331</v>
